--- a/Code/Results/Cases/Case_3_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5816557101892386</v>
+        <v>0.1814584051120676</v>
       </c>
       <c r="C2">
-        <v>0.08875404642537177</v>
+        <v>0.03523900328895735</v>
       </c>
       <c r="D2">
-        <v>0.0638145963260115</v>
+        <v>0.02953349150218543</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4781019504079396</v>
+        <v>0.6783337081030183</v>
       </c>
       <c r="G2">
-        <v>0.0008010037014499666</v>
+        <v>0.002424109022594731</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2892057158608274</v>
+        <v>0.5378927371314219</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6208630761063603</v>
+        <v>0.1867389260986982</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.753868030387679</v>
+        <v>0.8848238073444321</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.38615097349151</v>
+        <v>2.319661342300435</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5111671871288053</v>
+        <v>0.1587103975088695</v>
       </c>
       <c r="C3">
-        <v>0.08087508826177725</v>
+        <v>0.03244207139204747</v>
       </c>
       <c r="D3">
-        <v>0.05771072316113646</v>
+        <v>0.02733554122478665</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4528403063112449</v>
+        <v>0.6766109037018921</v>
       </c>
       <c r="G3">
-        <v>0.0008046941976179973</v>
+        <v>0.002426378543332483</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2894784599394669</v>
+        <v>0.541628343323282</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5488511703583185</v>
+        <v>0.1630004039512585</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.344925479370005</v>
+        <v>0.7879428552989793</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.349643798306516</v>
+        <v>2.326631108638026</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4677149149369342</v>
+        <v>0.1447039711759714</v>
       </c>
       <c r="C4">
-        <v>0.07599650972616701</v>
+        <v>0.03070913901017747</v>
       </c>
       <c r="D4">
-        <v>0.05393488436748584</v>
+        <v>0.02597297157370093</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4383150697245597</v>
+        <v>0.6759675610600695</v>
       </c>
       <c r="G4">
-        <v>0.0008070218379022389</v>
+        <v>0.002427845208358282</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2903166305844387</v>
+        <v>0.5442145161492213</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5044163809714917</v>
+        <v>0.1483606356874816</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.102452729644853</v>
+        <v>0.7289846298061065</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.330337391470664</v>
+        <v>2.33224154640348</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4499643828121691</v>
+        <v>0.1389869409116784</v>
       </c>
       <c r="C5">
-        <v>0.0739986990039796</v>
+        <v>0.02999909472234208</v>
       </c>
       <c r="D5">
-        <v>0.05238934488222213</v>
+        <v>0.02541448169869653</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4326281879183966</v>
+        <v>0.6758095288863473</v>
       </c>
       <c r="G5">
-        <v>0.000807986567523236</v>
+        <v>0.002428461345263518</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2908182151637746</v>
+        <v>0.5453418639107781</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4862544659573302</v>
+        <v>0.1423792007681044</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.005442983336408</v>
+        <v>0.7050851701381333</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.323206584657925</v>
+        <v>2.334862161224081</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4470142926763856</v>
+        <v>0.138037086257782</v>
       </c>
       <c r="C6">
-        <v>0.07366638861811481</v>
+        <v>0.02988096113245575</v>
       </c>
       <c r="D6">
-        <v>0.05213230016652659</v>
+        <v>0.02532155093458499</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4316974808609899</v>
+        <v>0.6757895747821294</v>
       </c>
       <c r="G6">
-        <v>0.0008081477571535852</v>
+        <v>0.00242856477103823</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2909109274914066</v>
+        <v>0.5455334934349771</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4832354244775701</v>
+        <v>0.1413850610758658</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.989433517876293</v>
+        <v>0.7011241485861888</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.322065758926655</v>
+        <v>2.335317493456614</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4674757010253217</v>
+        <v>0.1446269062582672</v>
       </c>
       <c r="C7">
-        <v>0.07596960541089715</v>
+        <v>0.03069957865056239</v>
       </c>
       <c r="D7">
-        <v>0.0539140682074688</v>
+        <v>0.02596545261342698</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4382374537180098</v>
+        <v>0.6759650082606328</v>
       </c>
       <c r="G7">
-        <v>0.0008070347821885759</v>
+        <v>0.002427853442917393</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2903227581460115</v>
+        <v>0.5442294226351692</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5041716624964749</v>
+        <v>0.1482800304571015</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.101137583096559</v>
+        <v>0.7286618090380301</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.330238297196345</v>
+        <v>2.332275535801301</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5573869686314481</v>
+        <v>0.1736233051890679</v>
       </c>
       <c r="C8">
-        <v>0.08604621299489423</v>
+        <v>0.03427789736544185</v>
       </c>
       <c r="D8">
-        <v>0.06171593012268772</v>
+        <v>0.02877836505206233</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4691774607253691</v>
+        <v>0.6776536084636007</v>
       </c>
       <c r="G8">
-        <v>0.0008022638276360352</v>
+        <v>0.002424876403141429</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2891551522520146</v>
+        <v>0.539120012693914</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5960794163688519</v>
+        <v>0.1785675277078411</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.610836957686871</v>
+        <v>0.8513061669071931</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.372889753335045</v>
+        <v>2.321788047846042</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7323315488760898</v>
+        <v>0.230154936194765</v>
       </c>
       <c r="C9">
-        <v>0.1054521140224978</v>
+        <v>0.0411686501438453</v>
       </c>
       <c r="D9">
-        <v>0.07678177679144227</v>
+        <v>0.03418955646281319</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5384407833754423</v>
+        <v>0.6842586111419919</v>
       </c>
       <c r="G9">
-        <v>0.0007933612800849129</v>
+        <v>0.002419616271946647</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2926138682150388</v>
+        <v>0.5314255314897345</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7745182457921516</v>
+        <v>0.2374307614200291</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.698774886860235</v>
+        <v>1.096281449235775</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.483433434528934</v>
+        <v>2.311801655360995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8599807845888563</v>
+        <v>0.2714640548322507</v>
       </c>
       <c r="C10">
-        <v>0.1194368394454557</v>
+        <v>0.04615135105071033</v>
       </c>
       <c r="D10">
-        <v>0.08768684684401507</v>
+        <v>0.03809935955373334</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5957653017097613</v>
+        <v>0.6911279447262686</v>
       </c>
       <c r="G10">
-        <v>0.0007870372077801003</v>
+        <v>0.002416100069946976</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2993225633021197</v>
+        <v>0.5271959987068833</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9043958970732717</v>
+        <v>0.2803301189262015</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.587150385000527</v>
+        <v>1.279411530931768</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.584531822455318</v>
+        <v>2.310943630725461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9178272300206913</v>
+        <v>0.2902031564296692</v>
       </c>
       <c r="C11">
-        <v>0.1257200674236429</v>
+        <v>0.0484001577421509</v>
       </c>
       <c r="D11">
-        <v>0.09260455419723712</v>
+        <v>0.03986337233384774</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6235527786017627</v>
+        <v>0.6946928785154469</v>
       </c>
       <c r="G11">
-        <v>0.0007841902548797775</v>
+        <v>0.002414575291030462</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3034517215997994</v>
+        <v>0.5255823686016505</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9631570634331013</v>
+        <v>0.2997658457399552</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.021432593239155</v>
+        <v>1.363500004184417</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.635745890659138</v>
+        <v>2.311966755193481</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9396945706718327</v>
+        <v>0.2972911194000005</v>
       </c>
       <c r="C12">
-        <v>0.1280856215567781</v>
+        <v>0.04924909567914426</v>
       </c>
       <c r="D12">
-        <v>0.09445955785643889</v>
+        <v>0.0405292229713865</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.634351699585828</v>
+        <v>0.6961062341132944</v>
       </c>
       <c r="G12">
-        <v>0.0007831146633384503</v>
+        <v>0.002414008584683595</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3051872304165713</v>
+        <v>0.5250160755849933</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9853536161088527</v>
+        <v>0.3071137358050748</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.191452433834286</v>
+        <v>1.39546210750413</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.655979640062725</v>
+        <v>2.312557928237112</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9349868585813965</v>
+        <v>0.2957649701682783</v>
       </c>
       <c r="C13">
-        <v>0.1275768184740684</v>
+        <v>0.04906638006583819</v>
       </c>
       <c r="D13">
-        <v>0.0940603915605891</v>
+        <v>0.0403859161630109</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6320131263918967</v>
+        <v>0.6957990214503695</v>
       </c>
       <c r="G13">
-        <v>0.0007833462343815778</v>
+        <v>0.002414130160305283</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3048055129866327</v>
+        <v>0.5251360445999538</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9805758224074452</v>
+        <v>0.3055317790277456</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.154564481653708</v>
+        <v>1.388573059504324</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.651583003946939</v>
+        <v>2.312421539449815</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9196270727281615</v>
+        <v>0.2907864535159206</v>
       </c>
       <c r="C14">
-        <v>0.1259149762387324</v>
+        <v>0.0484700536134568</v>
       </c>
       <c r="D14">
-        <v>0.09275731854471303</v>
+        <v>0.0399181954769503</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6244354804351033</v>
+        <v>0.694807884986794</v>
       </c>
       <c r="G14">
-        <v>0.0007841017275041904</v>
+        <v>0.002414528453938176</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3035909511220325</v>
+        <v>0.5255348817262195</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9649843547419152</v>
+        <v>0.3003706048469326</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.035300314477851</v>
+        <v>1.366127106222493</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.637393135647471</v>
+        <v>2.312011305342963</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9102136037647881</v>
+        <v>0.2877358931752951</v>
       </c>
       <c r="C15">
-        <v>0.1248951685962965</v>
+        <v>0.04810444104242606</v>
       </c>
       <c r="D15">
-        <v>0.0919581706949586</v>
+        <v>0.03963142262104924</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.619830938210427</v>
+        <v>0.6942090443011253</v>
       </c>
       <c r="G15">
-        <v>0.0007845647513473608</v>
+        <v>0.002414773811249815</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3028699314971774</v>
+        <v>0.5257850127432064</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9554266355989398</v>
+        <v>0.2972076569866715</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.963015162829407</v>
+        <v>1.352394107609967</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.628813720357272</v>
+        <v>2.311786572312002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8561954741550437</v>
+        <v>0.2702383035658613</v>
       </c>
       <c r="C16">
-        <v>0.1190244427638447</v>
+        <v>0.04600402111952917</v>
       </c>
       <c r="D16">
-        <v>0.08736451634358389</v>
+        <v>0.03798377986873902</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5939862366381377</v>
+        <v>0.6909038324870096</v>
       </c>
       <c r="G16">
-        <v>0.0007872237193112205</v>
+        <v>0.002416201217292174</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2990757826124124</v>
+        <v>0.5273077094255889</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9005485830820703</v>
+        <v>0.2790583010580292</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.559473195566596</v>
+        <v>1.273932493797773</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.581297265514706</v>
+        <v>2.310905250741229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.822996890632993</v>
+        <v>0.2594902212931629</v>
       </c>
       <c r="C17">
-        <v>0.1154013204469351</v>
+        <v>0.04471086038763872</v>
       </c>
       <c r="D17">
-        <v>0.08453480097212207</v>
+        <v>0.03696923787300221</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5785896214502344</v>
+        <v>0.6889889786439554</v>
       </c>
       <c r="G17">
-        <v>0.0007888614081754909</v>
+        <v>0.002417095992369112</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2970353977218032</v>
+        <v>0.5283214203003723</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8667952690970537</v>
+        <v>0.2679035085669739</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.320408431817413</v>
+        <v>1.226004121372725</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.553544447636625</v>
+        <v>2.310726950357065</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8038815533546995</v>
+        <v>0.2533032888746902</v>
       </c>
       <c r="C18">
-        <v>0.1133101963572614</v>
+        <v>0.04396539267385435</v>
       </c>
       <c r="D18">
-        <v>0.08290324921679115</v>
+        <v>0.03638433095331806</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.56989280405557</v>
+        <v>0.687929017031756</v>
       </c>
       <c r="G18">
-        <v>0.0007898063072494247</v>
+        <v>0.002417617683426894</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2959620746082905</v>
+        <v>0.5289336897387535</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8473517639122861</v>
+        <v>0.2614801274172862</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.185652639888261</v>
+        <v>1.198510122043146</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.538067418487742</v>
+        <v>2.310757407478775</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7974060640151777</v>
+        <v>0.2512076720070695</v>
       </c>
       <c r="C19">
-        <v>0.1126010037667697</v>
+        <v>0.04371270440803698</v>
       </c>
       <c r="D19">
-        <v>0.08235017710276082</v>
+        <v>0.03618605778225259</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5669746507889286</v>
+        <v>0.687577241227558</v>
       </c>
       <c r="G19">
-        <v>0.0007901267879495895</v>
+        <v>0.002417795529799686</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2956154090522283</v>
+        <v>0.5291460068775606</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8407636758196873</v>
+        <v>0.259304020858167</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.140466533613917</v>
+        <v>1.189213469941166</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.532908086166486</v>
+        <v>2.310790549689841</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8265330810491776</v>
+        <v>0.2606348862450432</v>
       </c>
       <c r="C20">
-        <v>0.1157877685391213</v>
+        <v>0.04484869350622489</v>
       </c>
       <c r="D20">
-        <v>0.0848364466812157</v>
+        <v>0.03707737964514735</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5802119653646542</v>
+        <v>0.6891885313212214</v>
       </c>
       <c r="G20">
-        <v>0.0007886867804320052</v>
+        <v>0.002417000013921165</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2972421098879181</v>
+        <v>0.5282104850996312</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8703914721529316</v>
+        <v>0.2690917294354449</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.345565062712296</v>
+        <v>1.231098557753398</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.556447918856804</v>
+        <v>2.310732161118807</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9241397038470609</v>
+        <v>0.2922489895942704</v>
       </c>
       <c r="C21">
-        <v>0.1264034973568897</v>
+        <v>0.04864528125224865</v>
       </c>
       <c r="D21">
-        <v>0.09314026889407501</v>
+        <v>0.04005563490546393</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6266534495369314</v>
+        <v>0.6950972844128174</v>
       </c>
       <c r="G21">
-        <v>0.0007838797700113356</v>
+        <v>0.002414411175651932</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3039428835688867</v>
+        <v>0.5254165180487931</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9695655302732291</v>
+        <v>0.3018868970416122</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.070168393019941</v>
+        <v>1.372716721815863</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.641537463294299</v>
+        <v>2.312126267755872</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9877054369192138</v>
+        <v>0.3128629976328625</v>
       </c>
       <c r="C22">
-        <v>0.1332593845459655</v>
+        <v>0.05111117180497615</v>
       </c>
       <c r="D22">
-        <v>0.0985243951291892</v>
+        <v>0.0419895858111019</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6586347854083954</v>
+        <v>0.6993285504660349</v>
       </c>
       <c r="G22">
-        <v>0.0007807514082468941</v>
+        <v>0.002412781528151318</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.309334126560735</v>
+        <v>0.5238514131251719</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.034053507796472</v>
+        <v>0.3232502342016517</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.57704963267804</v>
+        <v>1.465973117963543</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.702097705081911</v>
+        <v>2.314225166671719</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9538026921961773</v>
+        <v>0.3018654572057926</v>
       </c>
       <c r="C23">
-        <v>0.1296088473242065</v>
+        <v>0.04979651164420318</v>
       </c>
       <c r="D23">
-        <v>0.09565515991247509</v>
+        <v>0.04095856000321874</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6414052336523639</v>
+        <v>0.697036391563401</v>
       </c>
       <c r="G23">
-        <v>0.000782420582887428</v>
+        <v>0.002413645618973241</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3063577658914269</v>
+        <v>0.5246628262603394</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9996691097673533</v>
+        <v>0.3118548335542641</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.30296012720261</v>
+        <v>1.416133873431065</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.669289315949584</v>
+        <v>2.312996102028961</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8249344593768058</v>
+        <v>0.2601174072129595</v>
       </c>
       <c r="C24">
-        <v>0.1156130805449322</v>
+        <v>0.04478638541584701</v>
       </c>
       <c r="D24">
-        <v>0.08470008725647205</v>
+        <v>0.03702849383352458</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5794780234316974</v>
+        <v>0.6890981861284899</v>
       </c>
       <c r="G24">
-        <v>0.0007887657190365227</v>
+        <v>0.002417043383164786</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2971483459528947</v>
+        <v>0.5282605471092623</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8687657473561217</v>
+        <v>0.2685545669507121</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.334183472108251</v>
+        <v>1.228795174665777</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.555133775819655</v>
+        <v>2.310729391215688</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6851528633191606</v>
+        <v>0.2148994068256513</v>
       </c>
       <c r="C25">
-        <v>0.1002450605961513</v>
+        <v>0.03931834530266087</v>
       </c>
       <c r="D25">
-        <v>0.07273284176913108</v>
+        <v>0.03273710832489485</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5186678636732225</v>
+        <v>0.6821182729056474</v>
       </c>
       <c r="G25">
-        <v>0.0007957266877413069</v>
+        <v>0.002420977814320246</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2909988831957051</v>
+        <v>0.5332575429103308</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7264467046445588</v>
+        <v>0.2215659822369389</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.391824924105748</v>
+        <v>1.029487586080663</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.450312813045514</v>
+        <v>2.313367598994773</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1814584051120676</v>
+        <v>0.5816557101892386</v>
       </c>
       <c r="C2">
-        <v>0.03523900328895735</v>
+        <v>0.08875404642560625</v>
       </c>
       <c r="D2">
-        <v>0.02953349150218543</v>
+        <v>0.06381459632579123</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6783337081030183</v>
+        <v>0.4781019504079467</v>
       </c>
       <c r="G2">
-        <v>0.002424109022594731</v>
+        <v>0.0008010037014506469</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5378927371314219</v>
+        <v>0.2892057158608274</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1867389260986982</v>
+        <v>0.6208630761063318</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8848238073444321</v>
+        <v>2.753868030387665</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.319661342300435</v>
+        <v>1.386150973491425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1587103975088695</v>
+        <v>0.5111671871288195</v>
       </c>
       <c r="C3">
-        <v>0.03244207139204747</v>
+        <v>0.0808750882617133</v>
       </c>
       <c r="D3">
-        <v>0.02733554122478665</v>
+        <v>0.05771072316112935</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6766109037018921</v>
+        <v>0.452840306311252</v>
       </c>
       <c r="G3">
-        <v>0.002426378543332483</v>
+        <v>0.000804694197695944</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.541628343323282</v>
+        <v>0.2894784599394846</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1630004039512585</v>
+        <v>0.5488511703582191</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7879428552989793</v>
+        <v>2.344925479370005</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.326631108638026</v>
+        <v>1.349643798306531</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1447039711759714</v>
+        <v>0.4677149149370905</v>
       </c>
       <c r="C4">
-        <v>0.03070913901017747</v>
+        <v>0.07599650972647254</v>
       </c>
       <c r="D4">
-        <v>0.02597297157370093</v>
+        <v>0.05393488436720162</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6759675610600695</v>
+        <v>0.4383150697245455</v>
       </c>
       <c r="G4">
-        <v>0.002427845208358282</v>
+        <v>0.0008070218379410374</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5442145161492213</v>
+        <v>0.2903166305844529</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1483606356874816</v>
+        <v>0.5044163809715059</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7289846298061065</v>
+        <v>2.102452729644824</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.33224154640348</v>
+        <v>1.330337391470692</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1389869409116784</v>
+        <v>0.4499643828123112</v>
       </c>
       <c r="C5">
-        <v>0.02999909472234208</v>
+        <v>0.07399869900405065</v>
       </c>
       <c r="D5">
-        <v>0.02541448169869653</v>
+        <v>0.05238934488210845</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6758095288863473</v>
+        <v>0.4326281879183966</v>
       </c>
       <c r="G5">
-        <v>0.002428461345263518</v>
+        <v>0.0008079865674639462</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5453418639107781</v>
+        <v>0.2908182151637888</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1423792007681044</v>
+        <v>0.4862544659573018</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7050851701381333</v>
+        <v>2.005442983336408</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.334862161224081</v>
+        <v>1.32320658465791</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.138037086257782</v>
+        <v>0.4470142926763572</v>
       </c>
       <c r="C6">
-        <v>0.02988096113245575</v>
+        <v>0.07366638861802954</v>
       </c>
       <c r="D6">
-        <v>0.02532155093458499</v>
+        <v>0.05213230016651949</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6757895747821294</v>
+        <v>0.4316974808609828</v>
       </c>
       <c r="G6">
-        <v>0.00242856477103823</v>
+        <v>0.0008081477572475322</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5455334934349771</v>
+        <v>0.2909109274914385</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1413850610758658</v>
+        <v>0.4832354244775559</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7011241485861888</v>
+        <v>1.989433517876279</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.335317493456614</v>
+        <v>1.322065758926684</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1446269062582672</v>
+        <v>0.4674757010253359</v>
       </c>
       <c r="C7">
-        <v>0.03069957865056239</v>
+        <v>0.07596960541089715</v>
       </c>
       <c r="D7">
-        <v>0.02596545261342698</v>
+        <v>0.0539140682074688</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6759650082606328</v>
+        <v>0.4382374537179885</v>
       </c>
       <c r="G7">
-        <v>0.002427853442917393</v>
+        <v>0.0008070347821110755</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5442294226351692</v>
+        <v>0.2903227581459937</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1482800304571015</v>
+        <v>0.5041716624965886</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7286618090380301</v>
+        <v>2.101137583096559</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.332275535801301</v>
+        <v>1.330238297196402</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1736233051890679</v>
+        <v>0.5573869686315334</v>
       </c>
       <c r="C8">
-        <v>0.03427789736544185</v>
+        <v>0.08604621299466686</v>
       </c>
       <c r="D8">
-        <v>0.02877836505206233</v>
+        <v>0.0617159301225314</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6776536084636007</v>
+        <v>0.4691774607253691</v>
       </c>
       <c r="G8">
-        <v>0.002424876403141429</v>
+        <v>0.000802263827732193</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.539120012693914</v>
+        <v>0.2891551522519968</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1785675277078411</v>
+        <v>0.5960794163687808</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8513061669071931</v>
+        <v>2.610836957686871</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.321788047846042</v>
+        <v>1.37288975333496</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.230154936194765</v>
+        <v>0.7323315488760613</v>
       </c>
       <c r="C9">
-        <v>0.0411686501438453</v>
+        <v>0.1054521140223983</v>
       </c>
       <c r="D9">
-        <v>0.03418955646281319</v>
+        <v>0.07678177679155596</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6842586111419919</v>
+        <v>0.5384407833754423</v>
       </c>
       <c r="G9">
-        <v>0.002419616271946647</v>
+        <v>0.0007933612799687623</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5314255314897345</v>
+        <v>0.2926138682150317</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2374307614200291</v>
+        <v>0.7745182457920805</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.096281449235775</v>
+        <v>3.698774886860249</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.311801655360995</v>
+        <v>1.483433434528848</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2714640548322507</v>
+        <v>0.8599807845889131</v>
       </c>
       <c r="C10">
-        <v>0.04615135105071033</v>
+        <v>0.1194368394456973</v>
       </c>
       <c r="D10">
-        <v>0.03809935955373334</v>
+        <v>0.08768684684378059</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6911279447262686</v>
+        <v>0.5957653017097613</v>
       </c>
       <c r="G10">
-        <v>0.002416100069946976</v>
+        <v>0.0007870372077558717</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5271959987068833</v>
+        <v>0.2993225633021233</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2803301189262015</v>
+        <v>0.9043958970734423</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.279411530931768</v>
+        <v>4.587150385000555</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.310943630725461</v>
+        <v>1.584531822455403</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2902031564296692</v>
+        <v>0.9178272300207766</v>
       </c>
       <c r="C11">
-        <v>0.0484001577421509</v>
+        <v>0.1257200674237851</v>
       </c>
       <c r="D11">
-        <v>0.03986337233384774</v>
+        <v>0.09260455419746449</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6946928785154469</v>
+        <v>0.6235527786017627</v>
       </c>
       <c r="G11">
-        <v>0.002414575291030462</v>
+        <v>0.0007841902548783165</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5255823686016505</v>
+        <v>0.3034517215998065</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2997658457399552</v>
+        <v>0.963157063433016</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.363500004184417</v>
+        <v>5.02143259323914</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.311966755193481</v>
+        <v>1.635745890659109</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2972911194000005</v>
+        <v>0.9396945706718043</v>
       </c>
       <c r="C12">
-        <v>0.04924909567914426</v>
+        <v>0.1280856215572328</v>
       </c>
       <c r="D12">
-        <v>0.0405292229713865</v>
+        <v>0.09445955785627547</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6961062341132944</v>
+        <v>0.634351699585828</v>
       </c>
       <c r="G12">
-        <v>0.002414008584683595</v>
+        <v>0.0007831146633378878</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5250160755849933</v>
+        <v>0.3051872304165713</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3071137358050748</v>
+        <v>0.9853536161088812</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.39546210750413</v>
+        <v>5.191452433834328</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.312557928237112</v>
+        <v>1.655979640062725</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2957649701682783</v>
+        <v>0.9349868585814249</v>
       </c>
       <c r="C13">
-        <v>0.04906638006583819</v>
+        <v>0.1275768184740684</v>
       </c>
       <c r="D13">
-        <v>0.0403859161630109</v>
+        <v>0.09406039156070278</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6957990214503695</v>
+        <v>0.6320131263918967</v>
       </c>
       <c r="G13">
-        <v>0.002414130160305283</v>
+        <v>0.0007833462343769096</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5251360445999538</v>
+        <v>0.3048055129866185</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3055317790277456</v>
+        <v>0.9805758224074737</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.388573059504324</v>
+        <v>5.154564481653722</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.312421539449815</v>
+        <v>1.651583003946882</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2907864535159206</v>
+        <v>0.9196270727281899</v>
       </c>
       <c r="C14">
-        <v>0.0484700536134568</v>
+        <v>0.1259149762390734</v>
       </c>
       <c r="D14">
-        <v>0.0399181954769503</v>
+        <v>0.09275731854459934</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.694807884986794</v>
+        <v>0.6244354804351033</v>
       </c>
       <c r="G14">
-        <v>0.002414528453938176</v>
+        <v>0.0007841017274445358</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5255348817262195</v>
+        <v>0.3035909511220396</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3003706048469326</v>
+        <v>0.9649843547419152</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.366127106222493</v>
+        <v>5.035300314477837</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.312011305342963</v>
+        <v>1.6373931356475</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2877358931752951</v>
+        <v>0.9102136037647881</v>
       </c>
       <c r="C15">
-        <v>0.04810444104242606</v>
+        <v>0.124895168596197</v>
       </c>
       <c r="D15">
-        <v>0.03963142262104924</v>
+        <v>0.09195817069508649</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6942090443011253</v>
+        <v>0.6198309382104412</v>
       </c>
       <c r="G15">
-        <v>0.002414773811249815</v>
+        <v>0.0007845647514011545</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5257850127432064</v>
+        <v>0.3028699314971561</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2972076569866715</v>
+        <v>0.9554266355989967</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.352394107609967</v>
+        <v>4.963015162829379</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.311786572312002</v>
+        <v>1.628813720357329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2702383035658613</v>
+        <v>0.8561954741549869</v>
       </c>
       <c r="C16">
-        <v>0.04600402111952917</v>
+        <v>0.1190244427637595</v>
       </c>
       <c r="D16">
-        <v>0.03798377986873902</v>
+        <v>0.08736451634345599</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6909038324870096</v>
+        <v>0.5939862366381305</v>
       </c>
       <c r="G16">
-        <v>0.002416201217292174</v>
+        <v>0.0007872237193109429</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5273077094255889</v>
+        <v>0.2990757826124266</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2790583010580292</v>
+        <v>0.9005485830820987</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.273932493797773</v>
+        <v>4.559473195566611</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.310905250741229</v>
+        <v>1.581297265514735</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2594902212931629</v>
+        <v>0.8229968906329077</v>
       </c>
       <c r="C17">
-        <v>0.04471086038763872</v>
+        <v>0.1154013204469351</v>
       </c>
       <c r="D17">
-        <v>0.03696923787300221</v>
+        <v>0.08453480097214339</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6889889786439554</v>
+        <v>0.5785896214502486</v>
       </c>
       <c r="G17">
-        <v>0.002417095992369112</v>
+        <v>0.0007888614081749409</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5283214203003723</v>
+        <v>0.2970353977217997</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2679035085669739</v>
+        <v>0.866795269097139</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.226004121372725</v>
+        <v>4.320408431817384</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.310726950357065</v>
+        <v>1.553544447636682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2533032888746902</v>
+        <v>0.8038815533548984</v>
       </c>
       <c r="C18">
-        <v>0.04396539267385435</v>
+        <v>0.1133101963572472</v>
       </c>
       <c r="D18">
-        <v>0.03638433095331806</v>
+        <v>0.08290324921678405</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.687929017031756</v>
+        <v>0.5698928040555842</v>
       </c>
       <c r="G18">
-        <v>0.002417617683426894</v>
+        <v>0.0007898063073015125</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5289336897387535</v>
+        <v>0.295962074608294</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2614801274172862</v>
+        <v>0.8473517639123145</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.198510122043146</v>
+        <v>4.185652639888261</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.310757407478775</v>
+        <v>1.538067418487771</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2512076720070695</v>
+        <v>0.7974060640153198</v>
       </c>
       <c r="C19">
-        <v>0.04371270440803698</v>
+        <v>0.1126010037665424</v>
       </c>
       <c r="D19">
-        <v>0.03618605778225259</v>
+        <v>0.08235017710279635</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.687577241227558</v>
+        <v>0.5669746507889499</v>
       </c>
       <c r="G19">
-        <v>0.002417795529799686</v>
+        <v>0.0007901267878900765</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5291460068775606</v>
+        <v>0.2956154090522141</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.259304020858167</v>
+        <v>0.8407636758197157</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.189213469941166</v>
+        <v>4.140466533613889</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.310790549689841</v>
+        <v>1.532908086166572</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2606348862450432</v>
+        <v>0.8265330810490923</v>
       </c>
       <c r="C20">
-        <v>0.04484869350622489</v>
+        <v>0.1157877685387945</v>
       </c>
       <c r="D20">
-        <v>0.03707737964514735</v>
+        <v>0.08483644668139334</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6891885313212214</v>
+        <v>0.5802119653646614</v>
       </c>
       <c r="G20">
-        <v>0.002417000013921165</v>
+        <v>0.000788686780489967</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5282104850996312</v>
+        <v>0.2972421098879074</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2690917294354449</v>
+        <v>0.8703914721529884</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.231098557753398</v>
+        <v>4.345565062712282</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.310732161118807</v>
+        <v>1.556447918856833</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2922489895942704</v>
+        <v>0.9241397038470325</v>
       </c>
       <c r="C21">
-        <v>0.04864528125224865</v>
+        <v>0.1264034973572024</v>
       </c>
       <c r="D21">
-        <v>0.04005563490546393</v>
+        <v>0.09314026889396132</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6950972844128174</v>
+        <v>0.6266534495369243</v>
       </c>
       <c r="G21">
-        <v>0.002414411175651932</v>
+        <v>0.0007838797699862575</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5254165180487931</v>
+        <v>0.3039428835689009</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3018868970416122</v>
+        <v>0.9695655302732575</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.372716721815863</v>
+        <v>5.070168393019941</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.312126267755872</v>
+        <v>1.641537463294242</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3128629976328625</v>
+        <v>0.9877054369191569</v>
       </c>
       <c r="C22">
-        <v>0.05111117180497615</v>
+        <v>0.1332593845457382</v>
       </c>
       <c r="D22">
-        <v>0.0419895858111019</v>
+        <v>0.09852439512906841</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6993285504660349</v>
+        <v>0.6586347854084096</v>
       </c>
       <c r="G22">
-        <v>0.002412781528151318</v>
+        <v>0.0007807514082175617</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5238514131251719</v>
+        <v>0.309334126560735</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3232502342016517</v>
+        <v>1.0340535077965</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.465973117963543</v>
+        <v>5.57704963267804</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.314225166671719</v>
+        <v>1.702097705081968</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3018654572057926</v>
+        <v>0.9538026921963763</v>
       </c>
       <c r="C23">
-        <v>0.04979651164420318</v>
+        <v>0.1296088473246755</v>
       </c>
       <c r="D23">
-        <v>0.04095856000321874</v>
+        <v>0.09565515991230455</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.697036391563401</v>
+        <v>0.6414052336523781</v>
       </c>
       <c r="G23">
-        <v>0.002413645618973241</v>
+        <v>0.0007824205829113064</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5246628262603394</v>
+        <v>0.3063577658914483</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3118548335542641</v>
+        <v>0.9996691097674102</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.416133873431065</v>
+        <v>5.302960127202596</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.312996102028961</v>
+        <v>1.669289315949612</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2601174072129595</v>
+        <v>0.8249344593768058</v>
       </c>
       <c r="C24">
-        <v>0.04478638541584701</v>
+        <v>0.1156130805449038</v>
       </c>
       <c r="D24">
-        <v>0.03702849383352458</v>
+        <v>0.08470008725635125</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6890981861284899</v>
+        <v>0.5794780234316761</v>
       </c>
       <c r="G24">
-        <v>0.002417043383164786</v>
+        <v>0.0007887657190644992</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5282605471092623</v>
+        <v>0.2971483459528841</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2685545669507121</v>
+        <v>0.8687657473561501</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.228795174665777</v>
+        <v>4.33418347210818</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.310729391215688</v>
+        <v>1.555133775819627</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2148994068256513</v>
+        <v>0.6851528633191037</v>
       </c>
       <c r="C25">
-        <v>0.03931834530266087</v>
+        <v>0.1002450605963645</v>
       </c>
       <c r="D25">
-        <v>0.03273710832489485</v>
+        <v>0.07273284176913819</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6821182729056474</v>
+        <v>0.5186678636732154</v>
       </c>
       <c r="G25">
-        <v>0.002420977814320246</v>
+        <v>0.0007957266877769028</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5332575429103308</v>
+        <v>0.2909988831957016</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2215659822369389</v>
+        <v>0.7264467046445304</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.029487586080663</v>
+        <v>3.391824924105777</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.313367598994773</v>
+        <v>1.450312813045514</v>
       </c>
     </row>
   </sheetData>
